--- a/t/test_out.sampleset.good.xlsx
+++ b/t/test_out.sampleset.good.xlsx
@@ -11,51 +11,14 @@
     <sheet name="values" sheetId="2" r:id="rId2"/>
     <sheet name="units" sheetId="3" r:id="rId3"/>
     <sheet name="uris" sheetId="4" r:id="rId4"/>
+    <sheet name="ref+id" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">schema: pass
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">schema: pass
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -196,25 +159,22 @@
   </si>
   <si>
     <t>uri</t>
+  </si>
+  <si>
+    <t>ref_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -269,11 +229,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -575,230 +534,230 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="9.140625" style="2"/>
-    <col min="20" max="20" width="9.140625" style="2"/>
-    <col min="21" max="21" width="9.140625" style="2"/>
-    <col min="22" max="22" width="9.140625" style="2"/>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="U3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -808,7 +767,6 @@
     <hyperlink ref="Q3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -820,25 +778,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C2">
@@ -846,7 +804,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C3">
@@ -854,10 +812,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4">
@@ -865,10 +823,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C5">
@@ -876,10 +834,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6">
@@ -887,10 +845,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7">
@@ -898,10 +856,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8">
@@ -909,10 +867,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -920,10 +878,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10">
@@ -931,10 +889,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C11">
@@ -942,7 +900,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
@@ -950,10 +908,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13">
@@ -961,10 +919,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C14">
@@ -972,10 +930,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C15">
@@ -983,7 +941,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C16">
@@ -991,10 +949,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17">
@@ -1002,7 +960,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18">
@@ -1010,10 +968,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C19">
@@ -1021,10 +979,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C20">
@@ -1032,10 +990,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C21">
@@ -1043,10 +1001,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22">
@@ -1054,10 +1012,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C23">
@@ -1065,10 +1023,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C24">
@@ -1076,10 +1034,10 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25">
@@ -1102,17 +1060,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1129,17 +1087,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>

--- a/t/test_out.sampleset.good.xlsx
+++ b/t/test_out.sampleset.good.xlsx
@@ -17,6 +17,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 attribute notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DONOR_AGE: String does not match '[0-9]+ - [0-9]+|NA'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 attribute notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DONOR_AGE: String does not match '[0-9]+ - [0-9]+|NA'
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
@@ -168,13 +232,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -194,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,10 +299,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -534,230 +605,230 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="9.140625" style="2"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="R2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="U2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -767,6 +838,7 @@
     <hyperlink ref="Q3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -778,25 +850,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
@@ -804,7 +876,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3">
@@ -812,10 +884,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4">
@@ -823,10 +895,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C5">
@@ -834,10 +906,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C6">
@@ -845,10 +917,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7">
@@ -856,10 +928,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8">
@@ -867,10 +939,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -878,10 +950,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C10">
@@ -889,10 +961,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C11">
@@ -900,7 +972,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12">
@@ -908,10 +980,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C13">
@@ -919,10 +991,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C14">
@@ -930,10 +1002,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C15">
@@ -941,7 +1013,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16">
@@ -949,10 +1021,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17">
@@ -960,7 +1032,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C18">
@@ -968,10 +1040,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C19">
@@ -979,10 +1051,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C20">
@@ -990,10 +1062,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21">
@@ -1001,10 +1073,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22">
@@ -1012,10 +1084,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23">
@@ -1023,10 +1095,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C24">
@@ -1034,10 +1106,10 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C25">
@@ -1060,17 +1132,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1087,17 +1159,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1114,17 +1186,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
